--- a/DM/databank/banking/deal_management/BANK_82_Test_43810_V1.xlsx
+++ b/DM/databank/banking/deal_management/BANK_82_Test_43810_V1.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="518">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1605,6 +1605,42 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4134443158","modelId":"4436354524","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1670015105","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1678602038","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1678602039","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1678602040","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2168358820","dealId":"8773424485","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8773424485","modelId":"2168358820","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0860014207","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2168358820","dealId":"8773424485","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"0868600309","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"0860014207","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8773424485","modelId":"2168358820","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0860014208","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"0868600309","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2168358820","dealId":"8773424485","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8773424485","modelId":"2168358820","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0860014209","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2168358820","dealId":"8773424485","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0868600311","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0868600312","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0868600313","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"0860014209","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8773424485","modelId":"2168358820","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0860014210","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0868600311","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0868600312","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0868600313","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2168358820","dealId":"8773424485","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8773424485","modelId":"2168358820","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0860014211","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2168358820","dealId":"8773424485","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0868600317","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0868600318","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0868600319","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"0860014211","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8773424485","modelId":"2168358820","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0860014212","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0868600317","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0868600318","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0868600319","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -11195,10 +11231,10 @@
       </c>
       <c r="Z215" s="78"/>
       <c r="AU215" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="AV215" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="216" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11260,10 +11296,10 @@
       </c>
       <c r="Z216" s="81"/>
       <c r="AU216" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="AV216" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="217" spans="1:48" x14ac:dyDescent="0.35">
@@ -11325,10 +11361,10 @@
       </c>
       <c r="Z218" s="78"/>
       <c r="AU218" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="AV218" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="219" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11387,10 +11423,10 @@
       </c>
       <c r="Z219" s="81"/>
       <c r="AU219" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="AV219" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="220" spans="1:48" x14ac:dyDescent="0.35">
@@ -11452,10 +11488,10 @@
       </c>
       <c r="Z221" s="78"/>
       <c r="AU221" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AV221" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="222" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11514,10 +11550,10 @@
       </c>
       <c r="Z222" s="81"/>
       <c r="AU222" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="AV222" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="224" spans="1:48" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/BANK_82_Test_43810_V1.xlsx
+++ b/DM/databank/banking/deal_management/BANK_82_Test_43810_V1.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="542">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1641,6 +1641,78 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8773424485","modelId":"2168358820","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0860014212","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0868600317","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0868600318","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0868600319","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8827223346","dealId":"4145664094","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4145664094","modelId":"8827223346","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7080014398","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8827223346","dealId":"4145664094","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"7088600737","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"7080014398","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4145664094","modelId":"8827223346","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7080014399","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"7088600737","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8827223346","dealId":"4145664094","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4145664094","modelId":"8827223346","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7080014400","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8827223346","dealId":"4145664094","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7088600739","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7088600740","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7088600741","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7080014400","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4145664094","modelId":"8827223346","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7080014401","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7088600739","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7088600740","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7088600741","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8827223346","dealId":"4145664094","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4145664094","modelId":"8827223346","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7080014402","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8827223346","dealId":"4145664094","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7088600745","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7088600746","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7088600747","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"7080014402","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4145664094","modelId":"8827223346","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7080014403","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7088600745","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7088600746","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7088600747","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2840612261","dealId":"4804060489","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4804060489","modelId":"2840612261","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1690014690","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2840612261","dealId":"4804060489","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"1698601268","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"1690014690","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4804060489","modelId":"2840612261","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1690014691","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"1698601268","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2840612261","dealId":"4804060489","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600087","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600086","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600085","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009555","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4804060489","modelId":"2840612261","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1690014692","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600087","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600086","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600085","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2840612261","dealId":"4804060489","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1698601270","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1698601271","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1698601272","valueAmt":"17","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"1690014692","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4804060489","modelId":"2840612261","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1690014693","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1698601270","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"17","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1698601271","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"17","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1698601272","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"17","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2840612261","dealId":"4804060489","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2417600084","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2417600083","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2417600082","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"2410009554","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4804060489","modelId":"2840612261","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1690014694","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600084","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600083","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2417600082","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2840612261","dealId":"4804060489","entityType":"PERS","entityId":"2049157035","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"2049157035","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1698601276","valueAmt":"17","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1698601277","valueAmt":"17","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1698601278","valueAmt":"17","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"1690014694","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4804060489","modelId":"2840612261","entityId":"2049157035","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"2049157035","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_PRSPCH1_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1690014695","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1698601276","priceCompDesc":"Threshold price per transaction1","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1698601277","priceCompDesc":"Threshold price per transaction 2","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1698601278","priceCompDesc":"Threshold price per transaction 3","valueAmt":"17","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -11231,10 +11303,10 @@
       </c>
       <c r="Z215" s="78"/>
       <c r="AU215" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="AV215" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
     </row>
     <row r="216" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -11296,10 +11368,10 @@
       </c>
       <c r="Z216" s="81"/>
       <c r="AU216" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="AV216" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="217" spans="1:48" x14ac:dyDescent="0.35">
@@ -11361,10 +11433,10 @@
       </c>
       <c r="Z218" s="78"/>
       <c r="AU218" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="AV218" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
     </row>
     <row r="219" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11423,10 +11495,10 @@
       </c>
       <c r="Z219" s="81"/>
       <c r="AU219" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="AV219" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
     </row>
     <row r="220" spans="1:48" x14ac:dyDescent="0.35">
@@ -11488,10 +11560,10 @@
       </c>
       <c r="Z221" s="78"/>
       <c r="AU221" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="AV221" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
     </row>
     <row r="222" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -11550,10 +11622,10 @@
       </c>
       <c r="Z222" s="81"/>
       <c r="AU222" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="AV222" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
     </row>
     <row r="224" spans="1:48" x14ac:dyDescent="0.35">
